--- a/NHRIDB/Template/v4_2021-01-22.xlsx
+++ b/NHRIDB/Template/v4_2021-01-22.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORD\Git\NHRIDB\NHRIDB\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE411804-0D29-4BB9-9046-A1E332B37A2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04A14F0-788F-4B25-BB3D-67D5EE107F7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="上傳表格內容" sheetId="1" r:id="rId1"/>
     <sheet name="欄位說明" sheetId="2" r:id="rId2"/>
+    <sheet name="編號" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_1" localSheetId="0">上傳表格內容!$A$1:$AF$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">編號!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -68,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="588">
   <si>
     <t>機構代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,6 +290,2056 @@
   </si>
   <si>
     <t>有該項檢體填1，無則免填， 除了組織包埋之蠟塊，來自胸水或腹水離心的 pellet 製成的蠟塊，也可以算在內</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Organ/ Region     (器官/部位)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-56000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M81703</t>
+  </si>
+  <si>
+    <t>Liver</t>
+  </si>
+  <si>
+    <t>Hepatocellular Carcinoma</t>
+  </si>
+  <si>
+    <t>M81603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liver </t>
+  </si>
+  <si>
+    <t>Cholangiocarcinoma</t>
+  </si>
+  <si>
+    <t>M81803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combined Hepatocellular Carcinoma And Cholangiocarcinopma (Hepato-Cholangiocarcinoma)</t>
+  </si>
+  <si>
+    <t>M88500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angimyolipoma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M72030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Focal Nodular Hyperplasia</t>
+  </si>
+  <si>
+    <t>M81400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hepatic Adenoma</t>
+  </si>
+  <si>
+    <t>M81416</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adenocarcinoma, Metastatic (Colo-Rectal Origin)</t>
+  </si>
+  <si>
+    <t>M81406</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adenocarcinoma, Metastatic (Other Cancers)</t>
+  </si>
+  <si>
+    <t>M89366</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIST, metastatic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M88006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sarcoma, Metastatic</t>
+  </si>
+  <si>
+    <t>T-56000</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>M30010</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>liver</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>cholidocholithiasis (intrahepatic stones)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-57000</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gallbladder</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>cholelithiasis (gallbladder stone)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-57000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M81403</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gall Bladder</t>
+  </si>
+  <si>
+    <t>Adenocarcinoma</t>
+  </si>
+  <si>
+    <t>Adenoma</t>
+  </si>
+  <si>
+    <t>T-58500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M81603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common Bile Duct</t>
+  </si>
+  <si>
+    <t>Cholangiocarcinoma (Adenocarcinoma)</t>
+  </si>
+  <si>
+    <t>T-58700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ampulla Of Vater</t>
+  </si>
+  <si>
+    <t>T-59000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pancreas</t>
+  </si>
+  <si>
+    <t>M88003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sarcoma</t>
+  </si>
+  <si>
+    <t>M82403</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neuroendocrine Tumor (NET) (include insulinoma)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M82463</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neuroendocrine Carcinoma (NEC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-72000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M81203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Renal Pelvis</t>
+  </si>
+  <si>
+    <t>Urothelial Carcinoma</t>
+  </si>
+  <si>
+    <t>M81200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Papilloma</t>
+  </si>
+  <si>
+    <t>T-73000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ureter</t>
+  </si>
+  <si>
+    <t>T-74000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Urinary Bladder</t>
+  </si>
+  <si>
+    <t>T-75000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Urethra</t>
+  </si>
+  <si>
+    <t>T-71000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M83123</t>
+  </si>
+  <si>
+    <t>Kidney</t>
+  </si>
+  <si>
+    <t>Renal Cell Carcinoma</t>
+  </si>
+  <si>
+    <t>M33400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cyst</t>
+  </si>
+  <si>
+    <t>T-04000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M85003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breast</t>
+  </si>
+  <si>
+    <t>Infiltrating Ductal Carcinoma (Or Invasive Ductal Carcinoma)</t>
+  </si>
+  <si>
+    <t>M85002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ductal Carcinoma In Situ</t>
+  </si>
+  <si>
+    <t>M85203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Infiltrating Lobular Carcinoma</t>
+  </si>
+  <si>
+    <t>M85202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lobular Carcinoma In Situ</t>
+  </si>
+  <si>
+    <t>M85103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medullary Carcinoma</t>
+  </si>
+  <si>
+    <t>M80106</t>
+  </si>
+  <si>
+    <t>Carcinoma, Metastatic</t>
+  </si>
+  <si>
+    <t>M74320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fibrocystic Change</t>
+  </si>
+  <si>
+    <t>M90100</t>
+  </si>
+  <si>
+    <t>Fibroadenoma</t>
+  </si>
+  <si>
+    <t>M90200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phyllodes Tumor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-04000</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>M82603</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breast</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>invasive solid papillary carcinoma.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M80323</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>spindle cell carcinoma</t>
+  </si>
+  <si>
+    <t>M85743</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>invasive carcinoma with neuroendocrine differentiation</t>
+  </si>
+  <si>
+    <t>M09450</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>no residual carcinoma</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-78000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M90613</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Testis </t>
+  </si>
+  <si>
+    <t>Seminoma</t>
+  </si>
+  <si>
+    <t>M90800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Teratoma</t>
+  </si>
+  <si>
+    <t>T-77100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prostate</t>
+  </si>
+  <si>
+    <t>T-76000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M80703</t>
+  </si>
+  <si>
+    <t>Penis</t>
+  </si>
+  <si>
+    <t>Squamous Cell Carcinoma</t>
+  </si>
+  <si>
+    <t>Papilloma (or Squamous Cell Papilloma)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-28000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M81403</t>
+  </si>
+  <si>
+    <t>Lung</t>
+  </si>
+  <si>
+    <t>M81402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adenocarcinoma In Situ</t>
+  </si>
+  <si>
+    <t>M80703</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Squamous Cell Carcinoma </t>
+  </si>
+  <si>
+    <t>M80702</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Squamous Cell Carcinoma In Situ </t>
+  </si>
+  <si>
+    <t>M85603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adenosquamous Carcinoma</t>
+  </si>
+  <si>
+    <t>M80413</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Small Cell Carcinoma</t>
+  </si>
+  <si>
+    <t>Carcinoid Tumor</t>
+  </si>
+  <si>
+    <t>M80106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T28000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adenocarcinoma, Metastatic</t>
+  </si>
+  <si>
+    <t>D01880</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuberculosis</t>
+  </si>
+  <si>
+    <t>M44000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Necrotizing granulomatous inflammation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E20000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Granulomatous inflammation, suggestive of mycobacterial infection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-28000</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>M75500</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Lung </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Harmatoma</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-29000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M90503</t>
+  </si>
+  <si>
+    <t>Pleura</t>
+  </si>
+  <si>
+    <t>Mesothelioma</t>
+  </si>
+  <si>
+    <t>T-32000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M88400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heart</t>
+  </si>
+  <si>
+    <t>Myxoma</t>
+  </si>
+  <si>
+    <t>M91203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angiosarcinoma</t>
+  </si>
+  <si>
+    <t>T-Y23000</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>M90613</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mediastinum</t>
+  </si>
+  <si>
+    <t>seminoma</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-98000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M85803</t>
+  </si>
+  <si>
+    <t>Thymus</t>
+  </si>
+  <si>
+    <t>Thymic Carcinoma</t>
+  </si>
+  <si>
+    <t>M85800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thymoma</t>
+  </si>
+  <si>
+    <t>M72000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thymic Hyperplasia</t>
+  </si>
+  <si>
+    <t>T-X2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M93803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brain</t>
+  </si>
+  <si>
+    <t>Glioma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M94003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Astrocytoma</t>
+  </si>
+  <si>
+    <t>M94503</t>
+  </si>
+  <si>
+    <t>Oligodendroglioma</t>
+  </si>
+  <si>
+    <t>M93913</t>
+  </si>
+  <si>
+    <t>Ependymoma</t>
+  </si>
+  <si>
+    <t>M94403</t>
+  </si>
+  <si>
+    <t>Glioblastoma</t>
+  </si>
+  <si>
+    <t>M94703</t>
+  </si>
+  <si>
+    <t>Medulloblastoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarcoma, metastatic </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Adenocarcinoma, metastatic </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carcinoma, metastatic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M24600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arteriovenous malformation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-X1110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M95300</t>
+  </si>
+  <si>
+    <t>Meninge</t>
+  </si>
+  <si>
+    <t>Meningioma</t>
+  </si>
+  <si>
+    <t>T-X0500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M95600</t>
+  </si>
+  <si>
+    <t>Nerves</t>
+  </si>
+  <si>
+    <t>Schwannoma</t>
+  </si>
+  <si>
+    <t>M95610</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neurilemmoma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-X7410</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spinal cord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-1X500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M91803</t>
+  </si>
+  <si>
+    <t>Bone</t>
+  </si>
+  <si>
+    <t>Osteogenic Sarcoma</t>
+  </si>
+  <si>
+    <t>M92203</t>
+  </si>
+  <si>
+    <t>Chondrosarcoma</t>
+  </si>
+  <si>
+    <t>M92200</t>
+  </si>
+  <si>
+    <t>Enchondroma</t>
+  </si>
+  <si>
+    <t>M91910</t>
+  </si>
+  <si>
+    <t>Osteoid Osteoma</t>
+  </si>
+  <si>
+    <t>M88180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fibrous Dysplasia</t>
+  </si>
+  <si>
+    <t>M92100</t>
+  </si>
+  <si>
+    <t>Osteochondroma</t>
+  </si>
+  <si>
+    <t>T-1X000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M88503</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Soft Tissue </t>
+  </si>
+  <si>
+    <t>Liposarcoma</t>
+  </si>
+  <si>
+    <t>Angiosarcoma</t>
+  </si>
+  <si>
+    <t>M88900</t>
+  </si>
+  <si>
+    <t>Leiomyoma</t>
+  </si>
+  <si>
+    <t>M88903</t>
+  </si>
+  <si>
+    <t>Leiomyosarcoma</t>
+  </si>
+  <si>
+    <t>M89003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rhabdomyosarcoma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-23000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nasopharynx</t>
+  </si>
+  <si>
+    <t>Undifferentiated Carcinoma/Squamous Cell Carcinoma</t>
+  </si>
+  <si>
+    <t>M72200</t>
+  </si>
+  <si>
+    <t>Lymphoid Hyperplasia</t>
+  </si>
+  <si>
+    <t>T-24100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Larynx</t>
+  </si>
+  <si>
+    <t>T-22000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paranasal sinus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adenocarcinoma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-60200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oropharynx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Squamous Cell Carcinoma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-60300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hypopharynx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-51000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Oral Cavity </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Severe dysplasia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M80513</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verurucous carcinoma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-61100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tonsils</t>
+  </si>
+  <si>
+    <t>M95903</t>
+  </si>
+  <si>
+    <t>Lymphoma</t>
+  </si>
+  <si>
+    <t>T-53000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tongue</t>
+  </si>
+  <si>
+    <t>M80702</t>
+  </si>
+  <si>
+    <t>Squamous Cell Carcinoma In Situ</t>
+  </si>
+  <si>
+    <t>M74000</t>
+  </si>
+  <si>
+    <t>Dysplasia</t>
+  </si>
+  <si>
+    <t>T-55100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M89400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parotid Gland</t>
+  </si>
+  <si>
+    <t>Pleomorphic adenoma (mixed tumor)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M85610</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warthin's tumor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M82003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adenoid cystic carcinoma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M84303</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mucoepidermoid carcinoma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M85503</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acinic cell carcinoma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-55400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minor salivary gland</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-XX000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M95103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eye</t>
+  </si>
+  <si>
+    <t>Retinoblastoma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M51100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cataract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M87203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Melanoma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-XY000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>squamous cell carcinoma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M95600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acoustic neuroma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-01000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skin</t>
+  </si>
+  <si>
+    <t>M80812</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bowen's disease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M80903</t>
+  </si>
+  <si>
+    <t>Basal Cell Carcinoma</t>
+  </si>
+  <si>
+    <t>M87203</t>
+  </si>
+  <si>
+    <t>Melanoma</t>
+  </si>
+  <si>
+    <t>T-93000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M83703</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adrenal Gland</t>
+  </si>
+  <si>
+    <t>Adrenal cortical carcinoma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M87000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pheochromocytoma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M86801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paraganglioma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-91000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pituitary Gland</t>
+  </si>
+  <si>
+    <t>Adenoma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-97000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parathyroid</t>
+  </si>
+  <si>
+    <t>T-96000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M71600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thyroid</t>
+  </si>
+  <si>
+    <t>Nodular Goiter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M83300</t>
+  </si>
+  <si>
+    <t>Follicular Adenoma</t>
+  </si>
+  <si>
+    <t>M83303</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Follicular Carcinoma</t>
+  </si>
+  <si>
+    <t>M80503</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Papillary Carcinoma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-62000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Esophagus And Esophagogastric Junction (&lt;=2Cm Stomach Involvement)</t>
+  </si>
+  <si>
+    <t>Esophagus And Esophagogastric Junction (&lt;=3Cm Stomach Involvement)</t>
+  </si>
+  <si>
+    <t>T-63000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M89363</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stomach</t>
+  </si>
+  <si>
+    <t>Gastrointestinal Stromal Tumor (GIST)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M82403</t>
+  </si>
+  <si>
+    <t>Carcinoid Tumor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neuroendocrine carcinoma (NEC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-64000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Small Intestine</t>
+  </si>
+  <si>
+    <t>Gastrointestinal Stromal Tumor  (GIST)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-66000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Appendix</t>
+  </si>
+  <si>
+    <t>T-67000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Colon</t>
+  </si>
+  <si>
+    <t>M82630</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adenoma (include tubular, tubulovillous, villous adenoma)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-67000</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>M43000</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>colon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Ischemic colitis </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-68000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rectum</t>
+  </si>
+  <si>
+    <t>Rectum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-87000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M84413</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ovary</t>
+  </si>
+  <si>
+    <t>Serous cystadenocarcinoma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M84410</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serous cystadenoma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M84411</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serous cystadenoma, borderline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M84703</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mucinous  cystadenocarcinoma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M84700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mucinous  cystadenma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M84701</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mucinous  cystadenma, borderline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M85901</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sex cord stromal tumor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M90603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dysgerminoma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M90840</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Teratoma (Dermoid cyst)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adenocarcinoma, metastatic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-87000</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>M86201</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ovary</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>granulosa cell tumor</t>
+  </si>
+  <si>
+    <t>M54000</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>necrosis</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-86100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fallopian Tube</t>
+  </si>
+  <si>
+    <t>T-80100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Vulva </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-81000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vagina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-83000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uterine Cervix</t>
+  </si>
+  <si>
+    <t>Squamous Cell Carcinoma in situ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-84000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uterine Endometrium</t>
+  </si>
+  <si>
+    <t>M89303</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Endometrial stromal sarcoma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-84000</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>M72425</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uterine endometrium</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>complex hyperplasia with atypia.</t>
+  </si>
+  <si>
+    <t>T-85000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uterine Myometrum</t>
+  </si>
+  <si>
+    <t>T-07000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spleen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Lymphoma </t>
+  </si>
+  <si>
+    <t>M97303</t>
+  </si>
+  <si>
+    <t>Spleen</t>
+  </si>
+  <si>
+    <t>Plasma Cell Myeloma And Plasma Cell Disorders</t>
+  </si>
+  <si>
+    <t>M98003</t>
+  </si>
+  <si>
+    <t>Leukemia</t>
+  </si>
+  <si>
+    <t>M81406</t>
+  </si>
+  <si>
+    <t>Adenocarcinoma,Metastatic</t>
+  </si>
+  <si>
+    <t>M88006</t>
+  </si>
+  <si>
+    <t>Sarcoma,Metastatic</t>
+  </si>
+  <si>
+    <t>T-08000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M96503</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lymph Node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hodgkin's lymphoma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M95903</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Lymphoma </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M95923</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell Lymphoma </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-08000</t>
+  </si>
+  <si>
+    <t>M96803</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diffuse large B-cell lymphoma DLBL</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>M95913</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>high grade B-cell lymphoma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M97313</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-08000</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>M96703</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>B-cell chronic lymphocytic leukemia/small lymphocytic lymphoma</t>
+  </si>
+  <si>
+    <t>Adenocarcinoma, Metastatic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carcinoma, Metastatic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sarcoma, Metastatic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-06000</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>M97303</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bone marrow</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multiple myeloma, MM</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>M98103</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>acute leukemia</t>
+  </si>
+  <si>
+    <t>T-06000</t>
+  </si>
+  <si>
+    <t>M98213</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>acute lymphocytic leukemia</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>M98613</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>acute myeloid leukemia</t>
+  </si>
+  <si>
+    <t>M98033</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>chronic leukemia</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>M98233</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>chronic lymphocytic leukemia</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>M98633</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>chronic myeloid leukemia</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>M98503</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>B lymphoblastic leukemia/lymphoma</t>
+  </si>
+  <si>
+    <t>M98523</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-cell lymphoma/leukemia</t>
+  </si>
+  <si>
+    <t>M99601</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>myelodysplastic syndrome，MDS</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>M99603</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Myeloproliferative neoplasm</t>
+  </si>
+  <si>
+    <t>D40790</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refractory anemia</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>D40792</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refractory anemia with excess blasts</t>
+  </si>
+  <si>
+    <t>M99621</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Essential thrombocythemia</t>
+  </si>
+  <si>
+    <t>F75930</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parkinsonism, Parkinson's disease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M82000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dementia</t>
+  </si>
+  <si>
+    <t>M82010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alzheimer's disease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-X2000</t>
+  </si>
+  <si>
+    <t>M78010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Epilepsy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M40000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neural Disease (最好能再提供明確定義)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-06000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M60030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bone marrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-20100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M61120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upper respiratory tract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asthma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M71100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Obstructive sleep apnea </t>
+  </si>
+  <si>
+    <t>T-41000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F70700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Artery </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hypertension</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (不分健檢、門診或病房收案)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M52110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atherosclerosis</t>
+  </si>
+  <si>
+    <t>D72500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ischemic heart disease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D73720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hypertensive vascular disease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M70010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Valvular heart disease</t>
+  </si>
+  <si>
+    <t>D71000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cardiomyopathy</t>
+  </si>
+  <si>
+    <t>D71500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rheumatic heart disease</t>
+  </si>
+  <si>
+    <t>D65050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kidney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chronic Kidney Disease (CKD, not specified)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D45870</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IgA nephropathy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D38670</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lupus nephritis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-71000</t>
+  </si>
+  <si>
+    <t>D23810</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM nephropathy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M68130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Membranous glomerulonephritis</t>
+  </si>
+  <si>
+    <t>M46840</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Membranoproliferatie glomerulonephritis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M53150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acute tubular injury</t>
+  </si>
+  <si>
+    <t>M53341</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>focal segmental glomerulosclerosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liver </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chronic Hepatitis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M50080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fatty Liver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (不分健檢、門診或病房收案)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M50210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Osteoporosis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (不分健檢、門診或病房收案)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-12000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M13510</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ankylosing spondylitis</t>
+  </si>
+  <si>
+    <t>D30710</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Rheumatoid arthritis </t>
+  </si>
+  <si>
+    <t>M40900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Rheumatic arthritis </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cataract</t>
+  </si>
+  <si>
+    <t>DX300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glaucoma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M48840</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arthropathic psoriasis</t>
+  </si>
+  <si>
+    <t>T-00100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>body as a whole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Systemic lupus erythematosus (SLE)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Diabetes Mellitus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(不分健檢、門診或病房收案)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-00010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M24110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hyperlipidemia-Choleserol </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(不分健檢、門診或病房收案)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M24010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hyperlipidemia-Triglyceride </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (不分健檢、門診或病房收案)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D12010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">High Uric Acid </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (不分健檢、門診或病房收案)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M00100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regular (沒有特別註記)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -295,7 +2347,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -327,16 +2379,101 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -465,13 +2602,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -543,6 +2689,74 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -984,8 +3198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1296,4 +3510,3597 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09B340B-8880-49CF-8DE7-B51D7AF7869C}">
+  <dimension ref="A1:D255"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="17.109375" style="26" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="26" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="26" customWidth="1"/>
+    <col min="4" max="4" width="71.77734375" style="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="32.4">
+      <c r="A1" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="32.4">
+      <c r="A4" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="D43" s="32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="C45" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="D45" s="33" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="B47" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D54" s="26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B61" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="D65" s="30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="D66" s="30" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="B67" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="C67" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D67" s="30" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="B69" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="D69" s="26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="B70" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="D70" s="26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="D71" s="26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="B72" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="D72" s="26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="B73" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="C73" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="D73" s="30" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="B74" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="C74" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="D74" s="26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="B75" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="D75" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="B76" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="C76" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="D76" s="26" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="B77" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="C77" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D77" s="26" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="B78" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="C78" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D78" s="26" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="B79" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="C79" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D79" s="26" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="B80" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="C80" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D80" s="26" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="B81" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C81" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D81" s="26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="B82" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="C82" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D82" s="26" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="B83" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C83" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D83" s="26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="B84" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C84" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D84" s="26" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="B85" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C85" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D85" s="26" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="B86" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="C86" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D86" s="26" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="B87" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="C87" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="D87" s="26" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="B88" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="C88" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="D88" s="26" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="B89" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="C89" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="D89" s="35" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="B90" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="C90" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="D90" s="26" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="B91" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="C91" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="D91" s="26" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="B92" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="C92" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="D92" s="26" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="B93" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="C93" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="D93" s="26" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="B94" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="C94" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="D94" s="26" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="B95" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="C95" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="D95" s="26" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="B96" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="C96" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="D96" s="26" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="B97" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="C97" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="D97" s="26" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="B98" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="C98" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="D98" s="26" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="B99" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="C99" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="D99" s="26" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="B100" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="C100" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="D100" s="26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="B101" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="C101" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="D101" s="26" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="B102" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C102" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="D102" s="26" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="B103" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="C103" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="D103" s="26" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="B104" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="C104" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="D104" s="26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="36" t="s">
+        <v>280</v>
+      </c>
+      <c r="B105" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C105" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="D105" s="36" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="B106" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C106" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="D106" s="28" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="B107" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C107" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="D107" s="28" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="B108" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C108" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="D108" s="26" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="B109" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="C109" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="D109" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="B110" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="C110" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="D110" s="26" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="B111" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C111" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="D111" s="26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="B112" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="C112" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="D112" s="26" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="B113" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C113" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="D113" s="26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="B114" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="C114" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="D114" s="26" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="B115" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="C115" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="D115" s="26" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="B116" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="C116" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="D116" s="26" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="B117" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="C117" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="D117" s="26" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="B118" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="C118" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="D118" s="26" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="B119" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="C119" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="D119" s="26" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="B120" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="C120" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="D120" s="26" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="B121" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C121" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="D121" s="26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="B122" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="C122" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="D122" s="26" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="B123" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="C123" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="D123" s="36" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="B124" s="36" t="s">
+        <v>321</v>
+      </c>
+      <c r="C124" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="D124" s="36" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="B125" s="36" t="s">
+        <v>323</v>
+      </c>
+      <c r="C125" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="D125" s="36" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="B126" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="C126" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="D126" s="36" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="B127" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="C127" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="D127" s="36" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="B128" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C128" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="D128" s="26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="B129" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="C129" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="D129" s="26" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="B130" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="C130" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="D130" s="26" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="B131" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="C131" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="D131" s="26" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="B132" s="36" t="s">
+        <v>339</v>
+      </c>
+      <c r="C132" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="D132" s="26" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="B133" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="C133" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="D133" s="26" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="B134" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="C134" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="D134" s="26" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="B135" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C135" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="D135" s="26" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="B136" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C136" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="D136" s="26" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="B137" s="36" t="s">
+        <v>352</v>
+      </c>
+      <c r="C137" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="D137" s="26" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="B138" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="C138" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="D138" s="26" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="B139" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="C139" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="D139" s="26" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="B140" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="C140" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="D140" s="26" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="64.8">
+      <c r="A141" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="B141" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C141" s="27" t="s">
+        <v>362</v>
+      </c>
+      <c r="D141" s="26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="64.8">
+      <c r="A142" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="B142" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C142" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="D142" s="26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="B143" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="C143" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="D143" s="26" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="B144" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="C144" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="D144" s="26" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="B145" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C145" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="D145" s="26" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="B146" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C146" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="D146" s="26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="B147" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="C147" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="D147" s="26" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="B148" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C148" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="D148" s="26" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="B149" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C149" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="D149" s="26" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="B150" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C150" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="D150" s="26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="B151" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="C151" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="D151" s="26" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="B152" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C152" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="D152" s="26" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="B153" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C153" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="D153" s="26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="B154" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C154" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="D154" s="26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="B155" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="C155" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="D155" s="26" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="B156" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C156" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="D156" s="26" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="B157" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C157" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="D157" s="26" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="B158" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C158" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="D158" s="26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="B159" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="C159" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="D159" s="26" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="30" t="s">
+        <v>380</v>
+      </c>
+      <c r="B160" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="C160" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="D160" s="30" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="B161" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="C161" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="D161" s="26" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="B162" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C162" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="D162" s="26" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="B163" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C163" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="D163" s="26" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="B164" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C164" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="D164" s="26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="B165" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="C165" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="D165" s="26" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="B166" s="36" t="s">
+        <v>388</v>
+      </c>
+      <c r="C166" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="D166" s="26" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="B167" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="C167" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="D167" s="26" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="B168" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="C168" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="D168" s="26" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="B169" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="C169" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="D169" s="26" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="B170" s="36" t="s">
+        <v>397</v>
+      </c>
+      <c r="C170" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="D170" s="26" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="B171" s="36" t="s">
+        <v>399</v>
+      </c>
+      <c r="C171" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="D171" s="26" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="B172" s="36" t="s">
+        <v>401</v>
+      </c>
+      <c r="C172" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="D172" s="26" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="B173" s="36" t="s">
+        <v>403</v>
+      </c>
+      <c r="C173" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="D173" s="26" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="B174" s="36" t="s">
+        <v>405</v>
+      </c>
+      <c r="C174" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="D174" s="26" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="B175" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C175" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="D175" s="26" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="30" t="s">
+        <v>408</v>
+      </c>
+      <c r="B176" s="30" t="s">
+        <v>409</v>
+      </c>
+      <c r="C176" s="30" t="s">
+        <v>410</v>
+      </c>
+      <c r="D176" s="30" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="30" t="s">
+        <v>408</v>
+      </c>
+      <c r="B177" s="30" t="s">
+        <v>412</v>
+      </c>
+      <c r="C177" s="30" t="s">
+        <v>410</v>
+      </c>
+      <c r="D177" s="30" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="B178" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C178" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="D178" s="26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="26" t="s">
+        <v>416</v>
+      </c>
+      <c r="B179" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C179" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="D179" s="26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="B180" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C180" s="26" t="s">
+        <v>419</v>
+      </c>
+      <c r="D180" s="26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="26" t="s">
+        <v>420</v>
+      </c>
+      <c r="B181" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="C181" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="D181" s="26" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="26" t="s">
+        <v>420</v>
+      </c>
+      <c r="B182" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C182" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="D182" s="26" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="B183" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C183" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="D183" s="26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="B184" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="C184" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="D184" s="26" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="30" t="s">
+        <v>427</v>
+      </c>
+      <c r="B185" s="30" t="s">
+        <v>428</v>
+      </c>
+      <c r="C185" s="30" t="s">
+        <v>429</v>
+      </c>
+      <c r="D185" s="30" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="B186" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="C186" s="26" t="s">
+        <v>432</v>
+      </c>
+      <c r="D186" s="26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="B187" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="C187" s="26" t="s">
+        <v>432</v>
+      </c>
+      <c r="D187" s="26" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="B188" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="C188" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="D188" s="26" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="B189" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="C189" s="26" t="s">
+        <v>437</v>
+      </c>
+      <c r="D189" s="26" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="B190" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="C190" s="26" t="s">
+        <v>437</v>
+      </c>
+      <c r="D190" s="26" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="B191" s="26" t="s">
+        <v>441</v>
+      </c>
+      <c r="C191" s="26" t="s">
+        <v>437</v>
+      </c>
+      <c r="D191" s="26" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="B192" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="C192" s="26" t="s">
+        <v>437</v>
+      </c>
+      <c r="D192" s="26" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="25" t="s">
+        <v>445</v>
+      </c>
+      <c r="B193" s="25" t="s">
+        <v>446</v>
+      </c>
+      <c r="C193" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="D193" s="25" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="B194" s="29" t="s">
+        <v>449</v>
+      </c>
+      <c r="C194" s="35" t="s">
+        <v>447</v>
+      </c>
+      <c r="D194" s="35" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="B195" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="C195" s="35" t="s">
+        <v>447</v>
+      </c>
+      <c r="D195" s="35" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="35" t="s">
+        <v>453</v>
+      </c>
+      <c r="B196" s="34" t="s">
+        <v>454</v>
+      </c>
+      <c r="C196" s="35" t="s">
+        <v>447</v>
+      </c>
+      <c r="D196" s="33" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="35" t="s">
+        <v>453</v>
+      </c>
+      <c r="B197" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="C197" s="35" t="s">
+        <v>447</v>
+      </c>
+      <c r="D197" s="33" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="B198" s="29" t="s">
+        <v>458</v>
+      </c>
+      <c r="C198" s="35" t="s">
+        <v>447</v>
+      </c>
+      <c r="D198" s="35" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="25" t="s">
+        <v>445</v>
+      </c>
+      <c r="B199" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="C199" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="D199" s="25" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="B200" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="C200" s="35" t="s">
+        <v>447</v>
+      </c>
+      <c r="D200" s="33" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="26" t="s">
+        <v>445</v>
+      </c>
+      <c r="B201" s="26" t="s">
+        <v>441</v>
+      </c>
+      <c r="C201" s="26" t="s">
+        <v>447</v>
+      </c>
+      <c r="D201" s="26" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="26" t="s">
+        <v>445</v>
+      </c>
+      <c r="B202" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="C202" s="26" t="s">
+        <v>447</v>
+      </c>
+      <c r="D202" s="26" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="26" t="s">
+        <v>445</v>
+      </c>
+      <c r="B203" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="C203" s="26" t="s">
+        <v>447</v>
+      </c>
+      <c r="D203" s="26" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="37" t="s">
+        <v>465</v>
+      </c>
+      <c r="B204" s="37" t="s">
+        <v>466</v>
+      </c>
+      <c r="C204" s="37" t="s">
+        <v>467</v>
+      </c>
+      <c r="D204" s="37" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="37" t="s">
+        <v>465</v>
+      </c>
+      <c r="B205" s="37" t="s">
+        <v>469</v>
+      </c>
+      <c r="C205" s="37" t="s">
+        <v>467</v>
+      </c>
+      <c r="D205" s="37" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="37" t="s">
+        <v>471</v>
+      </c>
+      <c r="B206" s="37" t="s">
+        <v>472</v>
+      </c>
+      <c r="C206" s="37" t="s">
+        <v>467</v>
+      </c>
+      <c r="D206" s="37" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="37" t="s">
+        <v>471</v>
+      </c>
+      <c r="B207" s="37" t="s">
+        <v>474</v>
+      </c>
+      <c r="C207" s="37" t="s">
+        <v>467</v>
+      </c>
+      <c r="D207" s="37" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="37" t="s">
+        <v>471</v>
+      </c>
+      <c r="B208" s="37" t="s">
+        <v>476</v>
+      </c>
+      <c r="C208" s="37" t="s">
+        <v>467</v>
+      </c>
+      <c r="D208" s="37" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="37" t="s">
+        <v>471</v>
+      </c>
+      <c r="B209" s="37" t="s">
+        <v>478</v>
+      </c>
+      <c r="C209" s="37" t="s">
+        <v>467</v>
+      </c>
+      <c r="D209" s="37" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="37" t="s">
+        <v>471</v>
+      </c>
+      <c r="B210" s="37" t="s">
+        <v>480</v>
+      </c>
+      <c r="C210" s="37" t="s">
+        <v>467</v>
+      </c>
+      <c r="D210" s="37" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="37" t="s">
+        <v>471</v>
+      </c>
+      <c r="B211" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="C211" s="37" t="s">
+        <v>467</v>
+      </c>
+      <c r="D211" s="37" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="38" t="s">
+        <v>471</v>
+      </c>
+      <c r="B212" s="39" t="s">
+        <v>484</v>
+      </c>
+      <c r="C212" s="38" t="s">
+        <v>467</v>
+      </c>
+      <c r="D212" s="38" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="B213" s="40" t="s">
+        <v>486</v>
+      </c>
+      <c r="C213" s="40" t="s">
+        <v>467</v>
+      </c>
+      <c r="D213" s="40" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="B214" s="40" t="s">
+        <v>488</v>
+      </c>
+      <c r="C214" s="40" t="s">
+        <v>467</v>
+      </c>
+      <c r="D214" s="40" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="B215" s="40" t="s">
+        <v>490</v>
+      </c>
+      <c r="C215" s="40" t="s">
+        <v>467</v>
+      </c>
+      <c r="D215" s="40" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="38" t="s">
+        <v>471</v>
+      </c>
+      <c r="B216" s="39" t="s">
+        <v>492</v>
+      </c>
+      <c r="C216" s="38" t="s">
+        <v>467</v>
+      </c>
+      <c r="D216" s="38" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="B217" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="C217" s="40" t="s">
+        <v>467</v>
+      </c>
+      <c r="D217" s="40" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="B218" s="31" t="s">
+        <v>496</v>
+      </c>
+      <c r="C218" s="26" t="s">
+        <v>497</v>
+      </c>
+      <c r="D218" s="26" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="B219" s="31" t="s">
+        <v>499</v>
+      </c>
+      <c r="C219" s="26" t="s">
+        <v>497</v>
+      </c>
+      <c r="D219" s="26" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="B220" s="31" t="s">
+        <v>501</v>
+      </c>
+      <c r="C220" s="26" t="s">
+        <v>497</v>
+      </c>
+      <c r="D220" s="26" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="B221" s="41" t="s">
+        <v>504</v>
+      </c>
+      <c r="C221" s="29" t="s">
+        <v>497</v>
+      </c>
+      <c r="D221" s="29" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="B222" s="31" t="s">
+        <v>506</v>
+      </c>
+      <c r="C222" s="26" t="s">
+        <v>497</v>
+      </c>
+      <c r="D222" s="26" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="29" t="s">
+        <v>508</v>
+      </c>
+      <c r="B223" s="41" t="s">
+        <v>509</v>
+      </c>
+      <c r="C223" s="29" t="s">
+        <v>510</v>
+      </c>
+      <c r="D223" s="29" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="29" t="s">
+        <v>512</v>
+      </c>
+      <c r="B224" s="41" t="s">
+        <v>513</v>
+      </c>
+      <c r="C224" s="29" t="s">
+        <v>514</v>
+      </c>
+      <c r="D224" s="29" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="29" t="s">
+        <v>512</v>
+      </c>
+      <c r="B225" s="41" t="s">
+        <v>516</v>
+      </c>
+      <c r="C225" s="29" t="s">
+        <v>514</v>
+      </c>
+      <c r="D225" s="42" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="B226" s="43" t="s">
+        <v>519</v>
+      </c>
+      <c r="C226" s="29" t="s">
+        <v>520</v>
+      </c>
+      <c r="D226" s="26" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="B227" s="43" t="s">
+        <v>522</v>
+      </c>
+      <c r="C227" s="29" t="s">
+        <v>520</v>
+      </c>
+      <c r="D227" s="35" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="B228" s="31" t="s">
+        <v>524</v>
+      </c>
+      <c r="C228" s="25" t="s">
+        <v>525</v>
+      </c>
+      <c r="D228" s="20" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="B229" s="31" t="s">
+        <v>527</v>
+      </c>
+      <c r="C229" s="25" t="s">
+        <v>525</v>
+      </c>
+      <c r="D229" s="20" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="B230" s="31" t="s">
+        <v>529</v>
+      </c>
+      <c r="C230" s="25" t="s">
+        <v>525</v>
+      </c>
+      <c r="D230" s="44" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="B231" s="31" t="s">
+        <v>531</v>
+      </c>
+      <c r="C231" s="25" t="s">
+        <v>525</v>
+      </c>
+      <c r="D231" s="45" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="B232" s="31" t="s">
+        <v>533</v>
+      </c>
+      <c r="C232" s="25" t="s">
+        <v>525</v>
+      </c>
+      <c r="D232" s="44" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B233" s="31" t="s">
+        <v>535</v>
+      </c>
+      <c r="C233" s="25" t="s">
+        <v>536</v>
+      </c>
+      <c r="D233" s="29" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B234" s="31" t="s">
+        <v>538</v>
+      </c>
+      <c r="C234" s="25" t="s">
+        <v>536</v>
+      </c>
+      <c r="D234" s="46" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B235" s="31" t="s">
+        <v>540</v>
+      </c>
+      <c r="C235" s="25" t="s">
+        <v>536</v>
+      </c>
+      <c r="D235" s="26" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="26" t="s">
+        <v>542</v>
+      </c>
+      <c r="B236" s="31" t="s">
+        <v>543</v>
+      </c>
+      <c r="C236" s="25" t="s">
+        <v>536</v>
+      </c>
+      <c r="D236" s="26" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="26" t="s">
+        <v>542</v>
+      </c>
+      <c r="B237" s="31" t="s">
+        <v>545</v>
+      </c>
+      <c r="C237" s="25" t="s">
+        <v>536</v>
+      </c>
+      <c r="D237" s="45" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="26" t="s">
+        <v>542</v>
+      </c>
+      <c r="B238" s="31" t="s">
+        <v>547</v>
+      </c>
+      <c r="C238" s="25" t="s">
+        <v>536</v>
+      </c>
+      <c r="D238" s="45" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="26" t="s">
+        <v>542</v>
+      </c>
+      <c r="B239" s="31" t="s">
+        <v>549</v>
+      </c>
+      <c r="C239" s="25" t="s">
+        <v>536</v>
+      </c>
+      <c r="D239" s="45" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="26" t="s">
+        <v>542</v>
+      </c>
+      <c r="B240" s="31" t="s">
+        <v>551</v>
+      </c>
+      <c r="C240" s="25" t="s">
+        <v>536</v>
+      </c>
+      <c r="D240" s="45" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B241" s="31" t="s">
+        <v>506</v>
+      </c>
+      <c r="C241" s="25" t="s">
+        <v>553</v>
+      </c>
+      <c r="D241" s="26" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B242" s="26" t="s">
+        <v>555</v>
+      </c>
+      <c r="C242" s="29" t="s">
+        <v>553</v>
+      </c>
+      <c r="D242" s="47" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="B243" s="31" t="s">
+        <v>557</v>
+      </c>
+      <c r="C243" s="29" t="s">
+        <v>558</v>
+      </c>
+      <c r="D243" s="26" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="29" t="s">
+        <v>560</v>
+      </c>
+      <c r="B244" s="48" t="s">
+        <v>561</v>
+      </c>
+      <c r="C244" s="29" t="s">
+        <v>562</v>
+      </c>
+      <c r="D244" s="42" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="29" t="s">
+        <v>560</v>
+      </c>
+      <c r="B245" s="48" t="s">
+        <v>564</v>
+      </c>
+      <c r="C245" s="29" t="s">
+        <v>562</v>
+      </c>
+      <c r="D245" s="42" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="29" t="s">
+        <v>560</v>
+      </c>
+      <c r="B246" s="48" t="s">
+        <v>566</v>
+      </c>
+      <c r="C246" s="29" t="s">
+        <v>562</v>
+      </c>
+      <c r="D246" s="42" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="B247" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="C247" s="29" t="s">
+        <v>568</v>
+      </c>
+      <c r="D247" s="49" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="B248" s="48" t="s">
+        <v>570</v>
+      </c>
+      <c r="C248" s="29" t="s">
+        <v>568</v>
+      </c>
+      <c r="D248" s="49" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="B249" s="48" t="s">
+        <v>572</v>
+      </c>
+      <c r="C249" s="29" t="s">
+        <v>573</v>
+      </c>
+      <c r="D249" s="42" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="26" t="s">
+        <v>575</v>
+      </c>
+      <c r="B250" s="31" t="s">
+        <v>540</v>
+      </c>
+      <c r="C250" s="47" t="s">
+        <v>576</v>
+      </c>
+      <c r="D250" s="50" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="26" t="s">
+        <v>575</v>
+      </c>
+      <c r="B251" s="31" t="s">
+        <v>543</v>
+      </c>
+      <c r="C251" s="47" t="s">
+        <v>576</v>
+      </c>
+      <c r="D251" s="26" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="26" t="s">
+        <v>579</v>
+      </c>
+      <c r="B252" s="51" t="s">
+        <v>580</v>
+      </c>
+      <c r="C252" s="47" t="s">
+        <v>576</v>
+      </c>
+      <c r="D252" s="26" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="26" t="s">
+        <v>579</v>
+      </c>
+      <c r="B253" s="51" t="s">
+        <v>582</v>
+      </c>
+      <c r="C253" s="47" t="s">
+        <v>576</v>
+      </c>
+      <c r="D253" s="26" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="26" t="s">
+        <v>579</v>
+      </c>
+      <c r="B254" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="C254" s="47" t="s">
+        <v>576</v>
+      </c>
+      <c r="D254" s="26" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="26" t="s">
+        <v>579</v>
+      </c>
+      <c r="B255" s="26" t="s">
+        <v>586</v>
+      </c>
+      <c r="C255" s="47" t="s">
+        <v>576</v>
+      </c>
+      <c r="D255" s="47" t="s">
+        <v>587</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{43957AD8-1166-4B06-9121-4749D91C9055}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>